--- a/DOC/受入テスト/受入テスト仕様書_社員機能.xlsx
+++ b/DOC/受入テスト/受入テスト仕様書_社員機能.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangxiwen/Documents/softtech/emsm/DOC/受入テスト/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D62ED245-764A-124B-97E5-527A67D7C27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD99A7BA-553D-764C-B03C-B7707FFCDB56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
-    <sheet name="テスト前データ準備" sheetId="7" r:id="rId2"/>
-    <sheet name="テスト概要" sheetId="6" r:id="rId3"/>
+    <sheet name="テスト概要" sheetId="6" r:id="rId2"/>
+    <sheet name="テスト前データ準備" sheetId="7" r:id="rId3"/>
     <sheet name="テストシナリオ" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -540,16 +540,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>新規社員のテータは社員の自分更新した内容と一致する</t>
-    <rPh sb="1" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セイコウギョウコウシンコウシンゴアタイサキコウシンガメンニュウリョクアタイオナ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>管理員が社員の情報を更新する</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -776,6 +766,16 @@
   <si>
     <t>テーブルを照会し、内容は挿入したデータと一致する</t>
     <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>新規社員のデータは社員の自分更新した内容と一致する</t>
+    <rPh sb="1" eb="3">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セイコウギョウコウシンコウシンゴアタイサキコウシンガメンニュウリョクアタイオナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1495,6 +1495,18 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="5" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1555,46 +1567,97 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1630,9 +1693,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1648,15 +1708,6 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1665,57 +1716,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="5" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2114,16 +2114,16 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="45"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="45"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
       <c r="R15" s="8"/>
       <c r="X15" s="7"/>
     </row>
@@ -2131,20 +2131,20 @@
       <c r="A16" s="5"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="1:24" s="4" customFormat="1" ht="17">
@@ -2169,58 +2169,58 @@
       <c r="A18" s="5"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="47" t="s">
+      <c r="G18" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="53"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="1:24" s="4" customFormat="1" ht="17">
       <c r="A19" s="5"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
-      <c r="R19" s="52"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
       <c r="X19" s="7"/>
     </row>
     <row r="20" spans="1:24" s="4" customFormat="1" ht="17">
       <c r="A20" s="5"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="55"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="58"/>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="58"/>
+      <c r="P20" s="58"/>
+      <c r="Q20" s="58"/>
+      <c r="R20" s="59"/>
       <c r="X20" s="7"/>
     </row>
     <row r="21" spans="1:24" s="4" customFormat="1" ht="17">
@@ -2245,58 +2245,58 @@
       <c r="A22" s="5"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="56" t="s">
+      <c r="G22" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
       <c r="X22" s="7"/>
     </row>
     <row r="23" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A23" s="5"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="41"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="45"/>
       <c r="X23" s="7"/>
     </row>
     <row r="24" spans="1:24" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A24" s="5"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="43"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="44"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="48"/>
       <c r="X24" s="7"/>
     </row>
     <row r="25" spans="1:24" s="4" customFormat="1" ht="17">
@@ -2504,77 +2504,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF889DE-4071-A24B-93EC-DB0FE29BEC05}">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" style="110"/>
-    <col min="2" max="2" width="17" style="110" customWidth="1"/>
-    <col min="3" max="3" width="122.1640625" style="110" customWidth="1"/>
-    <col min="4" max="4" width="39.5" style="110" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="110" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="110"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="23" customHeight="1">
-      <c r="A1" s="109" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="109" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="109" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="109" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="109" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="109" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="189" customHeight="1">
-      <c r="A2" s="111">
-        <v>1</v>
-      </c>
-      <c r="B2" s="111" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="112" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="111"/>
-      <c r="B3" s="111"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="112"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702505DA-3645-4D14-86FE-2B9896603D6D}">
   <dimension ref="B2:C15"/>
   <sheetViews>
@@ -2664,6 +2593,77 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF889DE-4071-A24B-93EC-DB0FE29BEC05}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="40"/>
+    <col min="2" max="2" width="17" style="40" customWidth="1"/>
+    <col min="3" max="3" width="122.1640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="39.5" style="40" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="40" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="40"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="23" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="189" customHeight="1">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2757,949 +2757,949 @@
       <c r="BN1" s="27"/>
     </row>
     <row r="2" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="95"/>
+      <c r="V2" s="95"/>
+      <c r="W2" s="95"/>
+      <c r="X2" s="95"/>
+      <c r="Y2" s="95"/>
+      <c r="Z2" s="95"/>
+      <c r="AA2" s="95"/>
       <c r="BN2" s="27"/>
     </row>
     <row r="3" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
+      <c r="U3" s="95"/>
+      <c r="V3" s="95"/>
+      <c r="W3" s="95"/>
+      <c r="X3" s="95"/>
+      <c r="Y3" s="95"/>
+      <c r="Z3" s="95"/>
+      <c r="AA3" s="95"/>
       <c r="BN3" s="28"/>
     </row>
     <row r="4" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78" t="s">
+      <c r="B4" s="97"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="80" t="s">
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="81"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="83"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="84"/>
-      <c r="Y4" s="84"/>
-      <c r="Z4" s="84"/>
-      <c r="AA4" s="84"/>
-      <c r="AB4" s="84"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="84"/>
-      <c r="AE4" s="84"/>
-      <c r="AF4" s="84"/>
-      <c r="AG4" s="84"/>
-      <c r="AH4" s="84"/>
-      <c r="AI4" s="84"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="84"/>
-      <c r="AL4" s="84"/>
-      <c r="AM4" s="84"/>
-      <c r="AN4" s="84"/>
-      <c r="AO4" s="84"/>
-      <c r="AP4" s="84"/>
-      <c r="AQ4" s="84"/>
-      <c r="AR4" s="84"/>
-      <c r="AS4" s="84"/>
-      <c r="AT4" s="84"/>
-      <c r="AU4" s="84"/>
-      <c r="AV4" s="84"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="93" t="s">
+      <c r="Q4" s="102"/>
+      <c r="R4" s="102"/>
+      <c r="S4" s="102"/>
+      <c r="T4" s="102"/>
+      <c r="U4" s="103"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="89"/>
+      <c r="X4" s="89"/>
+      <c r="Y4" s="89"/>
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="89"/>
+      <c r="AB4" s="89"/>
+      <c r="AC4" s="89"/>
+      <c r="AD4" s="89"/>
+      <c r="AE4" s="89"/>
+      <c r="AF4" s="89"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="89"/>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89"/>
+      <c r="AK4" s="89"/>
+      <c r="AL4" s="89"/>
+      <c r="AM4" s="89"/>
+      <c r="AN4" s="89"/>
+      <c r="AO4" s="89"/>
+      <c r="AP4" s="89"/>
+      <c r="AQ4" s="89"/>
+      <c r="AR4" s="89"/>
+      <c r="AS4" s="89"/>
+      <c r="AT4" s="89"/>
+      <c r="AU4" s="89"/>
+      <c r="AV4" s="89"/>
+      <c r="AW4" s="105"/>
+      <c r="AX4" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="AY4" s="94"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="96">
+      <c r="AY4" s="111"/>
+      <c r="AZ4" s="112"/>
+      <c r="BA4" s="88">
         <v>45804</v>
       </c>
-      <c r="BB4" s="84"/>
-      <c r="BC4" s="84"/>
-      <c r="BD4" s="84"/>
-      <c r="BE4" s="84"/>
-      <c r="BF4" s="84"/>
-      <c r="BG4" s="93" t="s">
+      <c r="BB4" s="89"/>
+      <c r="BC4" s="89"/>
+      <c r="BD4" s="89"/>
+      <c r="BE4" s="89"/>
+      <c r="BF4" s="89"/>
+      <c r="BG4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="BH4" s="94"/>
-      <c r="BI4" s="95"/>
-      <c r="BJ4" s="96" t="s">
+      <c r="BH4" s="111"/>
+      <c r="BI4" s="112"/>
+      <c r="BJ4" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="BK4" s="84"/>
-      <c r="BL4" s="84"/>
-      <c r="BM4" s="84"/>
+      <c r="BK4" s="89"/>
+      <c r="BL4" s="89"/>
+      <c r="BM4" s="89"/>
       <c r="BN4" s="29"/>
     </row>
     <row r="5" spans="1:66" s="21" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A5" s="98"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="98" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="99"/>
-      <c r="V5" s="107"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="104"/>
-      <c r="Y5" s="104"/>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="104"/>
-      <c r="AF5" s="104"/>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="104"/>
-      <c r="AM5" s="104"/>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="104"/>
-      <c r="AT5" s="104"/>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="98" t="s">
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="81"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
+      <c r="AF5" s="82"/>
+      <c r="AG5" s="82"/>
+      <c r="AH5" s="82"/>
+      <c r="AI5" s="82"/>
+      <c r="AJ5" s="82"/>
+      <c r="AK5" s="82"/>
+      <c r="AL5" s="82"/>
+      <c r="AM5" s="82"/>
+      <c r="AN5" s="82"/>
+      <c r="AO5" s="82"/>
+      <c r="AP5" s="82"/>
+      <c r="AQ5" s="82"/>
+      <c r="AR5" s="82"/>
+      <c r="AS5" s="82"/>
+      <c r="AT5" s="82"/>
+      <c r="AU5" s="82"/>
+      <c r="AV5" s="82"/>
+      <c r="AW5" s="93"/>
+      <c r="AX5" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="AY5" s="97"/>
-      <c r="AZ5" s="99"/>
-      <c r="BA5" s="97"/>
-      <c r="BB5" s="97"/>
-      <c r="BC5" s="97"/>
-      <c r="BD5" s="97"/>
-      <c r="BE5" s="97"/>
-      <c r="BF5" s="97"/>
-      <c r="BG5" s="98" t="s">
+      <c r="AY5" s="81"/>
+      <c r="AZ5" s="87"/>
+      <c r="BA5" s="81"/>
+      <c r="BB5" s="81"/>
+      <c r="BC5" s="81"/>
+      <c r="BD5" s="81"/>
+      <c r="BE5" s="81"/>
+      <c r="BF5" s="81"/>
+      <c r="BG5" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="BH5" s="97"/>
-      <c r="BI5" s="99"/>
-      <c r="BJ5" s="97"/>
-      <c r="BK5" s="104"/>
-      <c r="BL5" s="104"/>
-      <c r="BM5" s="104"/>
+      <c r="BH5" s="81"/>
+      <c r="BI5" s="87"/>
+      <c r="BJ5" s="81"/>
+      <c r="BK5" s="82"/>
+      <c r="BL5" s="82"/>
+      <c r="BM5" s="82"/>
       <c r="BN5" s="22"/>
     </row>
     <row r="6" spans="1:66" ht="17" thickTop="1"/>
     <row r="7" spans="1:66" s="30" customFormat="1">
-      <c r="A7" s="86" t="s">
+      <c r="A7" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
       <c r="D7" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="87" t="s">
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="90" t="s">
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="109"/>
+      <c r="T7" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="91"/>
-      <c r="AF7" s="91"/>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="91"/>
-      <c r="AJ7" s="91"/>
-      <c r="AK7" s="92"/>
-      <c r="AL7" s="90" t="s">
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+      <c r="AE7" s="84"/>
+      <c r="AF7" s="84"/>
+      <c r="AG7" s="84"/>
+      <c r="AH7" s="84"/>
+      <c r="AI7" s="84"/>
+      <c r="AJ7" s="84"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AM7" s="91"/>
-      <c r="AN7" s="91"/>
-      <c r="AO7" s="91"/>
-      <c r="AP7" s="91"/>
-      <c r="AQ7" s="91"/>
-      <c r="AR7" s="91"/>
-      <c r="AS7" s="91"/>
-      <c r="AT7" s="91"/>
-      <c r="AU7" s="91"/>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91"/>
-      <c r="AX7" s="91"/>
-      <c r="AY7" s="92"/>
-      <c r="AZ7" s="90" t="s">
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="84"/>
+      <c r="AS7" s="84"/>
+      <c r="AT7" s="84"/>
+      <c r="AU7" s="84"/>
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84"/>
+      <c r="AX7" s="84"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="BA7" s="91"/>
-      <c r="BB7" s="91"/>
-      <c r="BC7" s="91"/>
-      <c r="BD7" s="91"/>
-      <c r="BE7" s="92"/>
-      <c r="BF7" s="90" t="s">
+      <c r="BA7" s="84"/>
+      <c r="BB7" s="84"/>
+      <c r="BC7" s="84"/>
+      <c r="BD7" s="84"/>
+      <c r="BE7" s="85"/>
+      <c r="BF7" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="BG7" s="91"/>
-      <c r="BH7" s="91"/>
-      <c r="BI7" s="91"/>
-      <c r="BJ7" s="92"/>
-      <c r="BK7" s="90" t="s">
+      <c r="BG7" s="84"/>
+      <c r="BH7" s="84"/>
+      <c r="BI7" s="84"/>
+      <c r="BJ7" s="85"/>
+      <c r="BK7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="BL7" s="91"/>
-      <c r="BM7" s="91"/>
-      <c r="BN7" s="92"/>
+      <c r="BL7" s="84"/>
+      <c r="BM7" s="84"/>
+      <c r="BN7" s="85"/>
     </row>
     <row r="8" spans="1:66" s="34" customFormat="1" ht="69.75" customHeight="1">
-      <c r="A8" s="59">
+      <c r="A8" s="80">
         <v>1</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61" t="s">
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="63"/>
-      <c r="T8" s="64" t="s">
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="65"/>
-      <c r="AA8" s="65"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="65"/>
-      <c r="AD8" s="65"/>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="65"/>
-      <c r="AH8" s="65"/>
-      <c r="AI8" s="65"/>
-      <c r="AJ8" s="65"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="60" t="s">
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="60"/>
-      <c r="AU8" s="60"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="67"/>
-      <c r="AZ8" s="68"/>
-      <c r="BA8" s="68"/>
-      <c r="BB8" s="68"/>
-      <c r="BC8" s="68"/>
-      <c r="BD8" s="68"/>
-      <c r="BE8" s="69"/>
-      <c r="BF8" s="68"/>
-      <c r="BG8" s="68"/>
-      <c r="BH8" s="68"/>
-      <c r="BI8" s="68"/>
-      <c r="BJ8" s="69"/>
-      <c r="BK8" s="70"/>
-      <c r="BL8" s="71"/>
-      <c r="BM8" s="71"/>
-      <c r="BN8" s="72"/>
+      <c r="AM8" s="65"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="65"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="65"/>
+      <c r="AR8" s="65"/>
+      <c r="AS8" s="65"/>
+      <c r="AT8" s="65"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="64"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="64"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="68"/>
+      <c r="BM8" s="68"/>
+      <c r="BN8" s="69"/>
     </row>
     <row r="9" spans="1:66" s="35" customFormat="1" ht="147" customHeight="1">
-      <c r="A9" s="59">
+      <c r="A9" s="80">
         <v>2</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="100" t="s">
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="101"/>
-      <c r="O9" s="101"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="64" t="s">
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="75"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="70" t="s">
         <v>48</v>
       </c>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="103"/>
-      <c r="AL9" s="60" t="s">
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="71"/>
+      <c r="AL9" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="68"/>
-      <c r="BA9" s="68"/>
-      <c r="BB9" s="68"/>
-      <c r="BC9" s="68"/>
-      <c r="BD9" s="68"/>
-      <c r="BE9" s="69"/>
-      <c r="BF9" s="68"/>
-      <c r="BG9" s="68"/>
-      <c r="BH9" s="68"/>
-      <c r="BI9" s="68"/>
-      <c r="BJ9" s="69"/>
-      <c r="BK9" s="70"/>
-      <c r="BL9" s="71"/>
-      <c r="BM9" s="71"/>
-      <c r="BN9" s="72"/>
+      <c r="AM9" s="65"/>
+      <c r="AN9" s="65"/>
+      <c r="AO9" s="65"/>
+      <c r="AP9" s="65"/>
+      <c r="AQ9" s="65"/>
+      <c r="AR9" s="65"/>
+      <c r="AS9" s="65"/>
+      <c r="AT9" s="65"/>
+      <c r="AU9" s="65"/>
+      <c r="AV9" s="65"/>
+      <c r="AW9" s="65"/>
+      <c r="AX9" s="65"/>
+      <c r="AY9" s="66"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="63"/>
+      <c r="BB9" s="63"/>
+      <c r="BC9" s="63"/>
+      <c r="BD9" s="63"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="63"/>
+      <c r="BG9" s="63"/>
+      <c r="BH9" s="63"/>
+      <c r="BI9" s="63"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="68"/>
+      <c r="BM9" s="68"/>
+      <c r="BN9" s="69"/>
     </row>
     <row r="10" spans="1:66" s="34" customFormat="1" ht="120" customHeight="1">
-      <c r="A10" s="59">
+      <c r="A10" s="80">
         <v>3</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="100" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="63"/>
-      <c r="T10" s="64" t="s">
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="64"/>
-      <c r="AE10" s="64"/>
-      <c r="AF10" s="64"/>
-      <c r="AG10" s="64"/>
-      <c r="AH10" s="64"/>
-      <c r="AI10" s="64"/>
-      <c r="AJ10" s="64"/>
-      <c r="AK10" s="103"/>
-      <c r="AL10" s="60" t="s">
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="70"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="70"/>
+      <c r="AG10" s="70"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="71"/>
+      <c r="AL10" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="67"/>
-      <c r="AZ10" s="68"/>
-      <c r="BA10" s="68"/>
-      <c r="BB10" s="68"/>
-      <c r="BC10" s="68"/>
-      <c r="BD10" s="68"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="68"/>
-      <c r="BG10" s="68"/>
-      <c r="BH10" s="68"/>
-      <c r="BI10" s="68"/>
-      <c r="BJ10" s="69"/>
-      <c r="BK10" s="70"/>
-      <c r="BL10" s="71"/>
-      <c r="BM10" s="71"/>
-      <c r="BN10" s="72"/>
+      <c r="AM10" s="65"/>
+      <c r="AN10" s="65"/>
+      <c r="AO10" s="65"/>
+      <c r="AP10" s="65"/>
+      <c r="AQ10" s="65"/>
+      <c r="AR10" s="65"/>
+      <c r="AS10" s="65"/>
+      <c r="AT10" s="65"/>
+      <c r="AU10" s="65"/>
+      <c r="AV10" s="65"/>
+      <c r="AW10" s="65"/>
+      <c r="AX10" s="65"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="63"/>
+      <c r="BB10" s="63"/>
+      <c r="BC10" s="63"/>
+      <c r="BD10" s="63"/>
+      <c r="BE10" s="64"/>
+      <c r="BF10" s="63"/>
+      <c r="BG10" s="63"/>
+      <c r="BH10" s="63"/>
+      <c r="BI10" s="63"/>
+      <c r="BJ10" s="64"/>
+      <c r="BK10" s="67"/>
+      <c r="BL10" s="68"/>
+      <c r="BM10" s="68"/>
+      <c r="BN10" s="69"/>
     </row>
     <row r="11" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A11" s="59">
+      <c r="A11" s="80">
         <v>4</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
       <c r="D11" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="100" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="102"/>
-      <c r="T11" s="64" t="s">
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="64"/>
-      <c r="AA11" s="64"/>
-      <c r="AB11" s="64"/>
-      <c r="AC11" s="64"/>
-      <c r="AD11" s="64"/>
-      <c r="AE11" s="64"/>
-      <c r="AF11" s="64"/>
-      <c r="AG11" s="64"/>
-      <c r="AH11" s="64"/>
-      <c r="AI11" s="64"/>
-      <c r="AJ11" s="64"/>
-      <c r="AK11" s="103"/>
-      <c r="AL11" s="60" t="s">
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="70"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="70"/>
+      <c r="AG11" s="70"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="71"/>
+      <c r="AL11" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="AM11" s="60"/>
-      <c r="AN11" s="60"/>
-      <c r="AO11" s="60"/>
-      <c r="AP11" s="60"/>
-      <c r="AQ11" s="60"/>
-      <c r="AR11" s="60"/>
-      <c r="AS11" s="60"/>
-      <c r="AT11" s="60"/>
-      <c r="AU11" s="60"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="67"/>
-      <c r="AZ11" s="68"/>
-      <c r="BA11" s="68"/>
-      <c r="BB11" s="68"/>
-      <c r="BC11" s="68"/>
-      <c r="BD11" s="68"/>
-      <c r="BE11" s="69"/>
-      <c r="BF11" s="68"/>
-      <c r="BG11" s="68"/>
-      <c r="BH11" s="68"/>
-      <c r="BI11" s="68"/>
-      <c r="BJ11" s="69"/>
-      <c r="BK11" s="70"/>
-      <c r="BL11" s="71"/>
-      <c r="BM11" s="71"/>
-      <c r="BN11" s="72"/>
+      <c r="AM11" s="65"/>
+      <c r="AN11" s="65"/>
+      <c r="AO11" s="65"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="65"/>
+      <c r="AR11" s="65"/>
+      <c r="AS11" s="65"/>
+      <c r="AT11" s="65"/>
+      <c r="AU11" s="65"/>
+      <c r="AV11" s="65"/>
+      <c r="AW11" s="65"/>
+      <c r="AX11" s="65"/>
+      <c r="AY11" s="66"/>
+      <c r="AZ11" s="63"/>
+      <c r="BA11" s="63"/>
+      <c r="BB11" s="63"/>
+      <c r="BC11" s="63"/>
+      <c r="BD11" s="63"/>
+      <c r="BE11" s="64"/>
+      <c r="BF11" s="63"/>
+      <c r="BG11" s="63"/>
+      <c r="BH11" s="63"/>
+      <c r="BI11" s="63"/>
+      <c r="BJ11" s="64"/>
+      <c r="BK11" s="67"/>
+      <c r="BL11" s="68"/>
+      <c r="BM11" s="68"/>
+      <c r="BN11" s="69"/>
     </row>
     <row r="12" spans="1:66" s="34" customFormat="1" ht="222" customHeight="1">
-      <c r="A12" s="59">
+      <c r="A12" s="80">
         <v>5</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
       <c r="D12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61" t="s">
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="63"/>
-      <c r="T12" s="64" t="s">
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="64"/>
-      <c r="AA12" s="64"/>
-      <c r="AB12" s="64"/>
-      <c r="AC12" s="64"/>
-      <c r="AD12" s="64"/>
-      <c r="AE12" s="64"/>
-      <c r="AF12" s="64"/>
-      <c r="AG12" s="64"/>
-      <c r="AH12" s="64"/>
-      <c r="AI12" s="64"/>
-      <c r="AJ12" s="64"/>
-      <c r="AK12" s="103"/>
-      <c r="AL12" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM12" s="60"/>
-      <c r="AN12" s="60"/>
-      <c r="AO12" s="60"/>
-      <c r="AP12" s="60"/>
-      <c r="AQ12" s="60"/>
-      <c r="AR12" s="60"/>
-      <c r="AS12" s="60"/>
-      <c r="AT12" s="60"/>
-      <c r="AU12" s="60"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="67"/>
-      <c r="AZ12" s="68"/>
-      <c r="BA12" s="68"/>
-      <c r="BB12" s="68"/>
-      <c r="BC12" s="68"/>
-      <c r="BD12" s="68"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="68"/>
-      <c r="BG12" s="68"/>
-      <c r="BH12" s="68"/>
-      <c r="BI12" s="68"/>
-      <c r="BJ12" s="69"/>
-      <c r="BK12" s="70"/>
-      <c r="BL12" s="71"/>
-      <c r="BM12" s="71"/>
-      <c r="BN12" s="72"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="70"/>
+      <c r="AG12" s="70"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="71"/>
+      <c r="AL12" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM12" s="65"/>
+      <c r="AN12" s="65"/>
+      <c r="AO12" s="65"/>
+      <c r="AP12" s="65"/>
+      <c r="AQ12" s="65"/>
+      <c r="AR12" s="65"/>
+      <c r="AS12" s="65"/>
+      <c r="AT12" s="65"/>
+      <c r="AU12" s="65"/>
+      <c r="AV12" s="65"/>
+      <c r="AW12" s="65"/>
+      <c r="AX12" s="65"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="63"/>
+      <c r="BA12" s="63"/>
+      <c r="BB12" s="63"/>
+      <c r="BC12" s="63"/>
+      <c r="BD12" s="63"/>
+      <c r="BE12" s="64"/>
+      <c r="BF12" s="63"/>
+      <c r="BG12" s="63"/>
+      <c r="BH12" s="63"/>
+      <c r="BI12" s="63"/>
+      <c r="BJ12" s="64"/>
+      <c r="BK12" s="67"/>
+      <c r="BL12" s="68"/>
+      <c r="BM12" s="68"/>
+      <c r="BN12" s="69"/>
     </row>
     <row r="13" spans="1:66" s="34" customFormat="1" ht="304" customHeight="1">
-      <c r="A13" s="59">
+      <c r="A13" s="80">
         <v>6</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="M13" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="64" t="s">
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="70"/>
+      <c r="AD13" s="70"/>
+      <c r="AE13" s="70"/>
+      <c r="AF13" s="70"/>
+      <c r="AG13" s="70"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="71"/>
+      <c r="AL13" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="64"/>
-      <c r="AA13" s="64"/>
-      <c r="AB13" s="64"/>
-      <c r="AC13" s="64"/>
-      <c r="AD13" s="64"/>
-      <c r="AE13" s="64"/>
-      <c r="AF13" s="64"/>
-      <c r="AG13" s="64"/>
-      <c r="AH13" s="64"/>
-      <c r="AI13" s="64"/>
-      <c r="AJ13" s="64"/>
-      <c r="AK13" s="103"/>
-      <c r="AL13" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="60"/>
-      <c r="AP13" s="60"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="60"/>
-      <c r="AT13" s="60"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="67"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="68"/>
-      <c r="BG13" s="68"/>
-      <c r="BH13" s="68"/>
-      <c r="BI13" s="68"/>
-      <c r="BJ13" s="69"/>
-      <c r="BK13" s="70"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="71"/>
-      <c r="BN13" s="72"/>
+      <c r="AM13" s="65"/>
+      <c r="AN13" s="65"/>
+      <c r="AO13" s="65"/>
+      <c r="AP13" s="65"/>
+      <c r="AQ13" s="65"/>
+      <c r="AR13" s="65"/>
+      <c r="AS13" s="65"/>
+      <c r="AT13" s="65"/>
+      <c r="AU13" s="65"/>
+      <c r="AV13" s="65"/>
+      <c r="AW13" s="65"/>
+      <c r="AX13" s="65"/>
+      <c r="AY13" s="66"/>
+      <c r="AZ13" s="63"/>
+      <c r="BA13" s="63"/>
+      <c r="BB13" s="63"/>
+      <c r="BC13" s="63"/>
+      <c r="BD13" s="63"/>
+      <c r="BE13" s="64"/>
+      <c r="BF13" s="63"/>
+      <c r="BG13" s="63"/>
+      <c r="BH13" s="63"/>
+      <c r="BI13" s="63"/>
+      <c r="BJ13" s="64"/>
+      <c r="BK13" s="67"/>
+      <c r="BL13" s="68"/>
+      <c r="BM13" s="68"/>
+      <c r="BN13" s="69"/>
     </row>
     <row r="14" spans="1:66" s="34" customFormat="1" ht="214" customHeight="1">
-      <c r="A14" s="59">
+      <c r="A14" s="80">
         <v>7</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
       <c r="D14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="60" t="s">
+      <c r="E14" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="79"/>
+      <c r="T14" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="63"/>
-      <c r="T14" s="60" t="s">
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="70"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="70"/>
+      <c r="AC14" s="70"/>
+      <c r="AD14" s="70"/>
+      <c r="AE14" s="70"/>
+      <c r="AF14" s="70"/>
+      <c r="AG14" s="70"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="70"/>
+      <c r="AJ14" s="70"/>
+      <c r="AK14" s="71"/>
+      <c r="AL14" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="64"/>
-      <c r="AA14" s="64"/>
-      <c r="AB14" s="64"/>
-      <c r="AC14" s="64"/>
-      <c r="AD14" s="64"/>
-      <c r="AE14" s="64"/>
-      <c r="AF14" s="64"/>
-      <c r="AG14" s="64"/>
-      <c r="AH14" s="64"/>
-      <c r="AI14" s="64"/>
-      <c r="AJ14" s="64"/>
-      <c r="AK14" s="103"/>
-      <c r="AL14" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="67"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="68"/>
-      <c r="BE14" s="69"/>
-      <c r="BF14" s="68"/>
-      <c r="BG14" s="68"/>
-      <c r="BH14" s="68"/>
-      <c r="BI14" s="68"/>
-      <c r="BJ14" s="69"/>
-      <c r="BK14" s="70"/>
-      <c r="BL14" s="71"/>
-      <c r="BM14" s="71"/>
-      <c r="BN14" s="72"/>
+      <c r="AM14" s="65"/>
+      <c r="AN14" s="65"/>
+      <c r="AO14" s="65"/>
+      <c r="AP14" s="65"/>
+      <c r="AQ14" s="65"/>
+      <c r="AR14" s="65"/>
+      <c r="AS14" s="65"/>
+      <c r="AT14" s="65"/>
+      <c r="AU14" s="65"/>
+      <c r="AV14" s="65"/>
+      <c r="AW14" s="65"/>
+      <c r="AX14" s="65"/>
+      <c r="AY14" s="66"/>
+      <c r="AZ14" s="63"/>
+      <c r="BA14" s="63"/>
+      <c r="BB14" s="63"/>
+      <c r="BC14" s="63"/>
+      <c r="BD14" s="63"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="63"/>
+      <c r="BG14" s="63"/>
+      <c r="BH14" s="63"/>
+      <c r="BI14" s="63"/>
+      <c r="BJ14" s="64"/>
+      <c r="BK14" s="67"/>
+      <c r="BL14" s="68"/>
+      <c r="BM14" s="68"/>
+      <c r="BN14" s="69"/>
     </row>
     <row r="15" spans="1:66" s="34" customFormat="1" ht="214" customHeight="1">
-      <c r="A15" s="59">
+      <c r="A15" s="80">
         <v>8</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
       <c r="D15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="60" t="s">
+      <c r="E15" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="77" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="63"/>
-      <c r="T15" s="60" t="s">
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="70"/>
+      <c r="AD15" s="70"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="70"/>
+      <c r="AG15" s="70"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="71"/>
+      <c r="AL15" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="64"/>
-      <c r="AA15" s="64"/>
-      <c r="AB15" s="64"/>
-      <c r="AC15" s="64"/>
-      <c r="AD15" s="64"/>
-      <c r="AE15" s="64"/>
-      <c r="AF15" s="64"/>
-      <c r="AG15" s="64"/>
-      <c r="AH15" s="64"/>
-      <c r="AI15" s="64"/>
-      <c r="AJ15" s="64"/>
-      <c r="AK15" s="103"/>
-      <c r="AL15" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="AM15" s="60"/>
-      <c r="AN15" s="60"/>
-      <c r="AO15" s="60"/>
-      <c r="AP15" s="60"/>
-      <c r="AQ15" s="60"/>
-      <c r="AR15" s="60"/>
-      <c r="AS15" s="60"/>
-      <c r="AT15" s="60"/>
-      <c r="AU15" s="60"/>
-      <c r="AV15" s="60"/>
-      <c r="AW15" s="60"/>
-      <c r="AX15" s="60"/>
-      <c r="AY15" s="67"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="68"/>
-      <c r="BG15" s="68"/>
-      <c r="BH15" s="68"/>
-      <c r="BI15" s="68"/>
-      <c r="BJ15" s="69"/>
-      <c r="BK15" s="70"/>
-      <c r="BL15" s="71"/>
-      <c r="BM15" s="71"/>
-      <c r="BN15" s="72"/>
+      <c r="AM15" s="65"/>
+      <c r="AN15" s="65"/>
+      <c r="AO15" s="65"/>
+      <c r="AP15" s="65"/>
+      <c r="AQ15" s="65"/>
+      <c r="AR15" s="65"/>
+      <c r="AS15" s="65"/>
+      <c r="AT15" s="65"/>
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="65"/>
+      <c r="AX15" s="65"/>
+      <c r="AY15" s="66"/>
+      <c r="AZ15" s="63"/>
+      <c r="BA15" s="63"/>
+      <c r="BB15" s="63"/>
+      <c r="BC15" s="63"/>
+      <c r="BD15" s="63"/>
+      <c r="BE15" s="64"/>
+      <c r="BF15" s="63"/>
+      <c r="BG15" s="63"/>
+      <c r="BH15" s="63"/>
+      <c r="BI15" s="63"/>
+      <c r="BJ15" s="64"/>
+      <c r="BK15" s="67"/>
+      <c r="BL15" s="68"/>
+      <c r="BM15" s="68"/>
+      <c r="BN15" s="69"/>
     </row>
     <row r="16" spans="1:66">
       <c r="A16" s="31"/>
@@ -3907,59 +3907,26 @@
     </row>
   </sheetData>
   <mergeCells count="89">
-    <mergeCell ref="AZ11:BE11"/>
-    <mergeCell ref="AZ13:BE13"/>
-    <mergeCell ref="AZ15:BE15"/>
-    <mergeCell ref="AL12:AY12"/>
-    <mergeCell ref="AZ14:BE14"/>
-    <mergeCell ref="BF12:BJ12"/>
-    <mergeCell ref="BK12:BN12"/>
-    <mergeCell ref="BK11:BN11"/>
-    <mergeCell ref="BK13:BN13"/>
-    <mergeCell ref="BK15:BN15"/>
-    <mergeCell ref="BF11:BJ11"/>
-    <mergeCell ref="BF13:BJ13"/>
-    <mergeCell ref="BF15:BJ15"/>
-    <mergeCell ref="BF14:BJ14"/>
-    <mergeCell ref="BK14:BN14"/>
-    <mergeCell ref="AL11:AY11"/>
-    <mergeCell ref="T14:AK14"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:AK12"/>
-    <mergeCell ref="T11:AK11"/>
-    <mergeCell ref="T13:AK13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="E11:L11"/>
-    <mergeCell ref="E13:L13"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="E12:L12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="E14:L14"/>
-    <mergeCell ref="AZ12:BE12"/>
-    <mergeCell ref="AL13:AY13"/>
-    <mergeCell ref="AL15:AY15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="AL14:AY14"/>
-    <mergeCell ref="T15:AK15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="AZ10:BE10"/>
-    <mergeCell ref="BF10:BJ10"/>
-    <mergeCell ref="BK10:BN10"/>
-    <mergeCell ref="BJ5:BM5"/>
-    <mergeCell ref="AZ7:BE7"/>
-    <mergeCell ref="BF7:BJ7"/>
-    <mergeCell ref="BK7:BN7"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:AK10"/>
-    <mergeCell ref="AL10:AY10"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:AK8"/>
+    <mergeCell ref="AL8:AY8"/>
+    <mergeCell ref="BF8:BJ8"/>
+    <mergeCell ref="BK8:BN8"/>
+    <mergeCell ref="A2:AA3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:AW4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="E7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:AK7"/>
+    <mergeCell ref="AL7:AY7"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="BA4:BF4"/>
+    <mergeCell ref="BG4:BI4"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="BJ4:BM4"/>
     <mergeCell ref="BA5:BF5"/>
     <mergeCell ref="BG5:BI5"/>
@@ -3976,26 +3943,59 @@
     <mergeCell ref="P5:U5"/>
     <mergeCell ref="V5:AW5"/>
     <mergeCell ref="AZ8:BE8"/>
-    <mergeCell ref="BF8:BJ8"/>
-    <mergeCell ref="BK8:BN8"/>
-    <mergeCell ref="A2:AA3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:AW4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="E7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:AK7"/>
-    <mergeCell ref="AL7:AY7"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="BA4:BF4"/>
-    <mergeCell ref="BG4:BI4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:AK8"/>
-    <mergeCell ref="AL8:AY8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:AK10"/>
+    <mergeCell ref="AL10:AY10"/>
+    <mergeCell ref="BJ5:BM5"/>
+    <mergeCell ref="AZ7:BE7"/>
+    <mergeCell ref="BF7:BJ7"/>
+    <mergeCell ref="BK7:BN7"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="T15:AK15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="AZ10:BE10"/>
+    <mergeCell ref="BF10:BJ10"/>
+    <mergeCell ref="BK10:BN10"/>
+    <mergeCell ref="E11:L11"/>
+    <mergeCell ref="E13:L13"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="E12:L12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="E14:L14"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="T14:AK14"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:AK12"/>
+    <mergeCell ref="T11:AK11"/>
+    <mergeCell ref="T13:AK13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="BF12:BJ12"/>
+    <mergeCell ref="BK12:BN12"/>
+    <mergeCell ref="BK11:BN11"/>
+    <mergeCell ref="BK13:BN13"/>
+    <mergeCell ref="BK15:BN15"/>
+    <mergeCell ref="BF11:BJ11"/>
+    <mergeCell ref="BF13:BJ13"/>
+    <mergeCell ref="BF15:BJ15"/>
+    <mergeCell ref="BF14:BJ14"/>
+    <mergeCell ref="BK14:BN14"/>
+    <mergeCell ref="AZ11:BE11"/>
+    <mergeCell ref="AZ13:BE13"/>
+    <mergeCell ref="AZ15:BE15"/>
+    <mergeCell ref="AL12:AY12"/>
+    <mergeCell ref="AZ14:BE14"/>
+    <mergeCell ref="AL11:AY11"/>
+    <mergeCell ref="AZ12:BE12"/>
+    <mergeCell ref="AL13:AY13"/>
+    <mergeCell ref="AL15:AY15"/>
+    <mergeCell ref="AL14:AY14"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
